--- a/data/input/Liquidaciones (readable)/HFF_Liquidation-8F_Air-AWB_176-50686031.xlsx
+++ b/data/input/Liquidaciones (readable)/HFF_Liquidation-8F_Air-AWB_176-50686031.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andreaperalta/Library/Mobile Documents/com~apple~CloudDocs/TEMP. 2023-2024/1.Asistencia comercial/3.Liquidaciones/2.Happy Farm/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99F7FE26-B381-AB4A-82BD-68119ABE336F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02438E03-0339-0345-915C-4D4D8F1444DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="18980" xr2:uid="{0BBB408B-C866-42DF-93A7-0EFE6001D9FE}"/>
+    <workbookView xWindow="0" yWindow="7740" windowWidth="33600" windowHeight="12900" xr2:uid="{0BBB408B-C866-42DF-93A7-0EFE6001D9FE}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="52">
   <si>
     <t>Happy Farm Fruit</t>
   </si>
@@ -198,6 +198,21 @@
   </si>
   <si>
     <t>2JD</t>
+  </si>
+  <si>
+    <t>1511817</t>
+  </si>
+  <si>
+    <t>1511818</t>
+  </si>
+  <si>
+    <t>1511816</t>
+  </si>
+  <si>
+    <t>1511819</t>
+  </si>
+  <si>
+    <t>1511861</t>
   </si>
 </sst>
 </file>
@@ -530,8 +545,8 @@
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>988871</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>196453</xdr:rowOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>5953</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -568,9 +583,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - Tema de 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -608,7 +623,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -714,7 +729,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -856,7 +871,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -869,8 +884,8 @@
   </sheetPr>
   <dimension ref="A1:Q30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="O11" sqref="O11"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
@@ -1102,8 +1117,8 @@
       <c r="C10" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="D10" s="10">
-        <v>1817</v>
+      <c r="D10" s="10" t="s">
+        <v>47</v>
       </c>
       <c r="E10" s="11">
         <v>2.5</v>
@@ -1153,8 +1168,8 @@
       <c r="C11" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="D11" s="10">
-        <v>1818</v>
+      <c r="D11" s="10" t="s">
+        <v>48</v>
       </c>
       <c r="E11" s="11">
         <v>2.5</v>
@@ -1202,8 +1217,8 @@
       <c r="C12" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="D12" s="10">
-        <v>1816</v>
+      <c r="D12" s="10" t="s">
+        <v>49</v>
       </c>
       <c r="E12" s="11">
         <v>2.5</v>
@@ -1251,8 +1266,8 @@
       <c r="C13" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="D13" s="10">
-        <v>1817</v>
+      <c r="D13" s="10" t="s">
+        <v>47</v>
       </c>
       <c r="E13" s="11">
         <v>2.5</v>
@@ -1291,8 +1306,8 @@
       <c r="C14" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="D14" s="10">
-        <v>1818</v>
+      <c r="D14" s="10" t="s">
+        <v>48</v>
       </c>
       <c r="E14" s="11">
         <v>2.5</v>
@@ -1331,8 +1346,8 @@
       <c r="C15" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="D15" s="10">
-        <v>1819</v>
+      <c r="D15" s="10" t="s">
+        <v>50</v>
       </c>
       <c r="E15" s="11">
         <v>2.5</v>
@@ -1373,8 +1388,8 @@
       <c r="C16" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="D16" s="10">
-        <v>1861</v>
+      <c r="D16" s="10" t="s">
+        <v>51</v>
       </c>
       <c r="E16" s="11">
         <v>2.5</v>
@@ -1419,8 +1434,8 @@
       <c r="C17" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="D17" s="10">
-        <v>1816</v>
+      <c r="D17" s="10" t="s">
+        <v>49</v>
       </c>
       <c r="E17" s="11">
         <v>2.5</v>
